--- a/Polar_figure/polar_values.xlsx
+++ b/Polar_figure/polar_values.xlsx
@@ -47,17 +47,17 @@
     <t>Od Angle3</t>
   </si>
   <si>
-    <t>1,2,3 are three patients</t>
-  </si>
-  <si>
     <t>Amp and Angle are paired values, so 1.56 and 19.6 go together</t>
+  </si>
+  <si>
+    <t>1,2,3 are the three readings per patient (3,5,14,15,18)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +70,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,14 +112,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,151 +436,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>2.1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>3.01</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2.96</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>66</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>67.7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>65.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.56</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1.36</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1.54</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>14.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>359.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
         <v>4.79</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>4.72</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>359.9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>352.9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>353.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>256.89999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>233.8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>275.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.91</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.83</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>349.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>344.4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>349.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>